--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -1835,7 +1835,7 @@
     <t>Estado do Evento</t>
   </si>
   <si>
-    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
     <t>Immunization.statusReason</t>
@@ -3031,7 +3031,7 @@
     <t>Estado do documento</t>
   </si>
   <si>
-    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoDocumento-1.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
   </si>
   <si>
     <t>Composition.type</t>
